--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H2">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>6157.557981643033</v>
+        <v>376.8087824557022</v>
       </c>
       <c r="R2">
-        <v>6157.557981643033</v>
+        <v>3391.27904210132</v>
       </c>
       <c r="S2">
-        <v>0.2212187563395304</v>
+        <v>0.01258766260270171</v>
       </c>
       <c r="T2">
-        <v>0.2212187563395304</v>
+        <v>0.01258766260270171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H3">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>6554.360646571231</v>
+        <v>397.17041501003</v>
       </c>
       <c r="R3">
-        <v>6554.360646571231</v>
+        <v>3574.53373509027</v>
       </c>
       <c r="S3">
-        <v>0.235474438918455</v>
+        <v>0.01326786267384575</v>
       </c>
       <c r="T3">
-        <v>0.235474438918455</v>
+        <v>0.01326786267384575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H4">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>4226.415450956769</v>
+        <v>256.6074766922455</v>
       </c>
       <c r="R4">
-        <v>4226.415450956769</v>
+        <v>2309.46729023021</v>
       </c>
       <c r="S4">
-        <v>0.1518397995799877</v>
+        <v>0.008572221477646589</v>
       </c>
       <c r="T4">
-        <v>0.1518397995799877</v>
+        <v>0.008572221477646589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H5">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>3277.071542852469</v>
+        <v>200.1474197573989</v>
       </c>
       <c r="R5">
-        <v>3277.071542852469</v>
+        <v>1801.32677781659</v>
       </c>
       <c r="S5">
-        <v>0.1177333113722543</v>
+        <v>0.006686118551399828</v>
       </c>
       <c r="T5">
-        <v>0.1177333113722543</v>
+        <v>0.006686118551399827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H6">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2166.465728079518</v>
+        <v>137.4879955952555</v>
       </c>
       <c r="R6">
-        <v>2166.465728079518</v>
+        <v>1237.3919603573</v>
       </c>
       <c r="S6">
-        <v>0.07783326692931658</v>
+        <v>0.004592919754141539</v>
       </c>
       <c r="T6">
-        <v>0.07783326692931658</v>
+        <v>0.004592919754141538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H7">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>600.6835256281656</v>
+        <v>6271.977291715335</v>
       </c>
       <c r="R7">
-        <v>600.6835256281656</v>
+        <v>56447.79562543801</v>
       </c>
       <c r="S7">
-        <v>0.02158038347170382</v>
+        <v>0.2095214805912886</v>
       </c>
       <c r="T7">
-        <v>0.02158038347170382</v>
+        <v>0.2095214805912886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H8">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>639.3925113102008</v>
+        <v>6610.896401218864</v>
       </c>
       <c r="R8">
-        <v>639.3925113102008</v>
+        <v>59498.06761096977</v>
       </c>
       <c r="S8">
-        <v>0.02297105712792809</v>
+        <v>0.2208434019441702</v>
       </c>
       <c r="T8">
-        <v>0.02297105712792809</v>
+        <v>0.2208434019441702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H9">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>412.2962611831791</v>
+        <v>4271.228117904449</v>
       </c>
       <c r="R9">
-        <v>412.2962611831791</v>
+        <v>38441.05306114005</v>
       </c>
       <c r="S9">
-        <v>0.01481231137640769</v>
+        <v>0.1426845151988316</v>
       </c>
       <c r="T9">
-        <v>0.01481231137640769</v>
+        <v>0.1426845151988316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H10">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>319.685643881034</v>
+        <v>3331.451203267532</v>
       </c>
       <c r="R10">
-        <v>319.685643881034</v>
+        <v>29983.06082940779</v>
       </c>
       <c r="S10">
-        <v>0.01148514732135642</v>
+        <v>0.1112903564794864</v>
       </c>
       <c r="T10">
-        <v>0.01148514732135642</v>
+        <v>0.1112903564794864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H11">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>211.3435676245392</v>
+        <v>2288.485901621138</v>
       </c>
       <c r="R11">
-        <v>211.3435676245392</v>
+        <v>20596.37311459024</v>
       </c>
       <c r="S11">
-        <v>0.007592808923544194</v>
+        <v>0.07644908967596326</v>
       </c>
       <c r="T11">
-        <v>0.007592808923544194</v>
+        <v>0.07644908967596326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H12">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>438.9262110231182</v>
+        <v>646.6270894191583</v>
       </c>
       <c r="R12">
-        <v>438.9262110231182</v>
+        <v>5819.643804772424</v>
       </c>
       <c r="S12">
-        <v>0.01576902902365321</v>
+        <v>0.02160120467025548</v>
       </c>
       <c r="T12">
-        <v>0.01576902902365321</v>
+        <v>0.02160120467025548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H13">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>467.2113024116261</v>
+        <v>681.5689055536461</v>
       </c>
       <c r="R13">
-        <v>467.2113024116261</v>
+        <v>6134.120149982815</v>
       </c>
       <c r="S13">
-        <v>0.01678520991201345</v>
+        <v>0.02276846990584823</v>
       </c>
       <c r="T13">
-        <v>0.01678520991201345</v>
+        <v>0.02276846990584823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H14">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>301.2695171735958</v>
+        <v>440.3542419986136</v>
       </c>
       <c r="R14">
-        <v>301.2695171735958</v>
+        <v>3963.188177987523</v>
       </c>
       <c r="S14">
-        <v>0.01082352258977353</v>
+        <v>0.01471046027065107</v>
       </c>
       <c r="T14">
-        <v>0.01082352258977353</v>
+        <v>0.01471046027065107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H15">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>233.5978970630999</v>
+        <v>343.4653052644709</v>
       </c>
       <c r="R15">
-        <v>233.5978970630999</v>
+        <v>3091.187747380238</v>
       </c>
       <c r="S15">
-        <v>0.00839232637774362</v>
+        <v>0.01147379142871059</v>
       </c>
       <c r="T15">
-        <v>0.00839232637774362</v>
+        <v>0.01147379142871059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H16">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>154.4311228854476</v>
+        <v>235.9378723670956</v>
       </c>
       <c r="R16">
-        <v>154.4311228854476</v>
+        <v>2123.44085130386</v>
       </c>
       <c r="S16">
-        <v>0.00554815091415836</v>
+        <v>0.007881733310994265</v>
       </c>
       <c r="T16">
-        <v>0.00554815091415836</v>
+        <v>0.007881733310994263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H17">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>460.5381023931982</v>
+        <v>448.9764635423275</v>
       </c>
       <c r="R17">
-        <v>460.5381023931982</v>
+        <v>4040.788171880948</v>
       </c>
       <c r="S17">
-        <v>0.01654546600488622</v>
+        <v>0.01499849393847243</v>
       </c>
       <c r="T17">
-        <v>0.01654546600488622</v>
+        <v>0.01499849393847243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H18">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>490.2158978561708</v>
+        <v>473.2378242160669</v>
       </c>
       <c r="R18">
-        <v>490.2158978561708</v>
+        <v>4259.140417944603</v>
       </c>
       <c r="S18">
-        <v>0.01761168170643385</v>
+        <v>0.01580896820728645</v>
       </c>
       <c r="T18">
-        <v>0.01761168170643385</v>
+        <v>0.01580896820728645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H19">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>316.103454894233</v>
+        <v>305.7538007818299</v>
       </c>
       <c r="R19">
-        <v>316.103454894233</v>
+        <v>2751.784207036469</v>
       </c>
       <c r="S19">
-        <v>0.0113564522453221</v>
+        <v>0.01021400206930635</v>
       </c>
       <c r="T19">
-        <v>0.0113564522453221</v>
+        <v>0.01021400206930635</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H20">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>245.0998129861408</v>
+        <v>238.4803244875612</v>
       </c>
       <c r="R20">
-        <v>245.0998129861408</v>
+        <v>2146.322920388051</v>
       </c>
       <c r="S20">
-        <v>0.00880554855829027</v>
+        <v>0.007966666388369412</v>
       </c>
       <c r="T20">
-        <v>0.00880554855829027</v>
+        <v>0.00796666638836941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H21">
+        <v>8.227433</v>
+      </c>
+      <c r="I21">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J21">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>163.8201573742189</v>
+      </c>
+      <c r="R21">
+        <v>1474.38141636797</v>
+      </c>
+      <c r="S21">
+        <v>0.005472571141015237</v>
+      </c>
+      <c r="T21">
+        <v>0.005472571141015236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H22">
+        <v>9.156113</v>
+      </c>
+      <c r="I22">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J22">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>499.6551457221142</v>
+      </c>
+      <c r="R22">
+        <v>4496.896311499027</v>
+      </c>
+      <c r="S22">
+        <v>0.0166914644373851</v>
+      </c>
+      <c r="T22">
+        <v>0.0166914644373851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.156113</v>
+      </c>
+      <c r="I23">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J23">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>526.655032547387</v>
+      </c>
+      <c r="R23">
+        <v>4739.895292926482</v>
+      </c>
+      <c r="S23">
+        <v>0.01759342182662833</v>
+      </c>
+      <c r="T23">
+        <v>0.01759342182662833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H24">
+        <v>9.156113</v>
+      </c>
+      <c r="I24">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J24">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>340.2660769328565</v>
+      </c>
+      <c r="R24">
+        <v>3062.394692395709</v>
+      </c>
+      <c r="S24">
+        <v>0.0113669181054167</v>
+      </c>
+      <c r="T24">
+        <v>0.0113669181054167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="H21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="I21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="J21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q21">
-        <v>162.0350174994878</v>
-      </c>
-      <c r="R21">
-        <v>162.0350174994878</v>
-      </c>
-      <c r="S21">
-        <v>0.005821331307241072</v>
-      </c>
-      <c r="T21">
-        <v>0.005821331307241072</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H25">
+        <v>9.156113</v>
+      </c>
+      <c r="I25">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J25">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>265.3990374986679</v>
+      </c>
+      <c r="R25">
+        <v>2388.591337488011</v>
+      </c>
+      <c r="S25">
+        <v>0.008865912087672088</v>
+      </c>
+      <c r="T25">
+        <v>0.008865912087672085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H26">
+        <v>9.156113</v>
+      </c>
+      <c r="I26">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J26">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>182.3115268876855</v>
+      </c>
+      <c r="R26">
+        <v>1640.80374198917</v>
+      </c>
+      <c r="S26">
+        <v>0.006090293262512676</v>
+      </c>
+      <c r="T26">
+        <v>0.006090293262512674</v>
       </c>
     </row>
   </sheetData>
